--- a/case1_220324/result_v1_cmn_220330.xlsx
+++ b/case1_220324/result_v1_cmn_220330.xlsx
@@ -24,7 +24,7 @@
     <t>ASSUMPTION</t>
   </si>
   <si>
-    <t>Written at: 2022.03.31 21:02:51</t>
+    <t>Written at: 2022.04.08 11:28:04</t>
   </si>
   <si>
     <t>result_v1_cmn_220330.xlsx</t>
@@ -456,7 +456,7 @@
     <t>Financial Balance Table</t>
   </si>
   <si>
-    <t>Written at:2022.03.31 21:02:51</t>
+    <t>Written at:2022.04.08 11:28:04</t>
   </si>
   <si>
     <t>Sales</t>
